--- a/exceldata/dataoverview.xlsx
+++ b/exceldata/dataoverview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasch\OneDrive\Dokumente\Studium\Systems Engineering\EBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F9D85-E2BC-4B7D-B8CA-57A143AB5319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A39A7-D9E2-4A1E-A379-C3F6101CCFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16188" yWindow="3624" windowWidth="23040" windowHeight="12504" firstSheet="2" activeTab="6" xr2:uid="{8183963D-A5BA-4FE0-96DE-642975419E5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" firstSheet="2" activeTab="6" xr2:uid="{8183963D-A5BA-4FE0-96DE-642975419E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="hammerhead" sheetId="1" r:id="rId1"/>
@@ -907,12 +907,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -927,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -990,6 +996,7 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7557,10 +7564,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E62F030-8851-4C63-92AE-E7C27030EA34}">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="107" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="107" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -7570,9 +7577,10 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7586,12 +7594,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -7609,7 +7617,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -7629,8 +7637,21 @@
         <v>44446</v>
       </c>
       <c r="G4" s="58"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="60"/>
+      <c r="J4" s="13">
+        <v>43709</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.43107638888888888</v>
+      </c>
+      <c r="L4" s="13">
+        <v>43715</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.30516203703703704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -7653,8 +7674,9 @@
       <c r="H5" s="14">
         <v>0.30053240740740744</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -7676,8 +7698,9 @@
       <c r="H6" s="17">
         <v>43728</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="60"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -7699,8 +7722,9 @@
       <c r="H7" s="18">
         <v>0.10707175925925926</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="60"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -7716,8 +7740,21 @@
       <c r="E8" s="18">
         <v>0.12063657407407408</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="60"/>
+      <c r="J8" s="17">
+        <v>43718</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.669988425925926</v>
+      </c>
+      <c r="L8" s="17">
+        <v>43728</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.12063657407407408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -7733,8 +7770,9 @@
       <c r="E9" s="18">
         <v>0.10707175925925926</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
@@ -7750,8 +7788,9 @@
       <c r="E10" s="18">
         <v>0.1160300925925926</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
@@ -7767,8 +7806,9 @@
       <c r="E11" s="22">
         <v>0.5040162037037037</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="60"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
@@ -7790,8 +7830,21 @@
       <c r="H12" s="10">
         <v>0.5040162037037037</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="60"/>
+      <c r="J12" s="21">
+        <v>43730</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.13521990740740741</v>
+      </c>
+      <c r="L12" s="21">
+        <v>43730</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0.5040162037037037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
@@ -7807,8 +7860,9 @@
       <c r="E13" s="22">
         <v>0.51091435185185186</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="20" t="s">
         <v>14</v>
       </c>
@@ -7824,8 +7878,9 @@
       <c r="E14" s="22">
         <v>0.5085763888888889</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="60"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
@@ -7842,8 +7897,9 @@
         <v>0.50100694444444438</v>
       </c>
       <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
@@ -7865,8 +7921,21 @@
       <c r="H16" s="58">
         <v>44464</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="60"/>
+      <c r="J16" s="25">
+        <v>43732</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.48530092592592594</v>
+      </c>
+      <c r="L16" s="25">
+        <v>43733</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0.50100694444444438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
@@ -7888,8 +7957,9 @@
       <c r="H17" s="26">
         <v>1.7534722222222222E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="60"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -7905,8 +7975,9 @@
       <c r="E18" s="26">
         <v>1.7534722222222222E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="28" t="s">
         <v>20</v>
       </c>
@@ -7928,8 +7999,9 @@
       <c r="H19" s="58">
         <v>44484</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="60"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="28" t="s">
         <v>21</v>
       </c>
@@ -7952,8 +8024,21 @@
       <c r="H20" s="30">
         <v>0.25586805555555553</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="60"/>
+      <c r="J20" s="29">
+        <v>43752</v>
+      </c>
+      <c r="K20" s="30">
+        <v>0.33046296296296296</v>
+      </c>
+      <c r="L20" s="29">
+        <v>43753</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0.25732638888888887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
@@ -7969,8 +8054,9 @@
       <c r="E21" s="30">
         <v>0.26305555555555554</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="60"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="28" t="s">
         <v>23</v>
       </c>
@@ -7987,8 +8073,9 @@
         <v>0.25586805555555553</v>
       </c>
       <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="60"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="32" t="s">
         <v>24</v>
       </c>
@@ -8005,8 +8092,9 @@
         <v>7.0196759259259264E-2</v>
       </c>
       <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="60"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="32" t="s">
         <v>25</v>
       </c>
@@ -8022,8 +8110,21 @@
       <c r="E24" s="34">
         <v>7.0196759259259264E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="60"/>
+      <c r="J24" s="33">
+        <v>43742</v>
+      </c>
+      <c r="K24" s="34">
+        <v>0.54148148148148145</v>
+      </c>
+      <c r="L24" s="33">
+        <v>43746</v>
+      </c>
+      <c r="M24" s="34">
+        <v>7.0196759259259264E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="32" t="s">
         <v>26</v>
       </c>
@@ -8039,8 +8140,9 @@
       <c r="E25" s="34">
         <v>0.28309027777777779</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="32" t="s">
         <v>27</v>
       </c>
@@ -8056,8 +8158,9 @@
       <c r="E26" s="34">
         <v>0.28424768518518517</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="60"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
@@ -8079,8 +8182,9 @@
       <c r="H27" s="37">
         <v>0.82108796296296294</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="60"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="35" t="s">
         <v>29</v>
       </c>
@@ -8096,8 +8200,21 @@
       <c r="E28" s="37">
         <v>0.82108796296296294</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="60"/>
+      <c r="J28" s="36">
+        <v>43761</v>
+      </c>
+      <c r="K28" s="37">
+        <v>0.48123842592592592</v>
+      </c>
+      <c r="L28" s="36">
+        <v>43761</v>
+      </c>
+      <c r="M28" s="37">
+        <v>0.82108796296296294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="35" t="s">
         <v>30</v>
       </c>
@@ -8113,8 +8230,9 @@
       <c r="E29" s="37">
         <v>0.82326388888888891</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="60"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="35" t="s">
         <v>31</v>
       </c>
@@ -8130,8 +8248,9 @@
       <c r="E30" s="37">
         <v>0.83000000000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="60"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="39" t="s">
         <v>32</v>
       </c>
@@ -8153,8 +8272,9 @@
       <c r="H31" s="41">
         <v>0.43326388888888889</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="60"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="39" t="s">
         <v>33</v>
       </c>
@@ -8170,8 +8290,21 @@
       <c r="E32" s="41">
         <v>0.44528935185185187</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="60"/>
+      <c r="J32" s="40">
+        <v>43769</v>
+      </c>
+      <c r="K32" s="41">
+        <v>0.1791898148148148</v>
+      </c>
+      <c r="L32" s="40">
+        <v>43769</v>
+      </c>
+      <c r="M32" s="41">
+        <v>0.44528935185185187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="39" t="s">
         <v>34</v>
       </c>
@@ -8187,8 +8320,9 @@
       <c r="E33" s="41">
         <v>0.44373842592592588</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="60"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="39" t="s">
         <v>35</v>
       </c>
@@ -8210,8 +8344,9 @@
       <c r="H34" s="44">
         <v>43774</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="43" t="s">
         <v>36</v>
       </c>
@@ -8233,8 +8368,9 @@
       <c r="H35" s="45">
         <v>0.17438657407407407</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="60"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="43" t="s">
         <v>37</v>
       </c>
@@ -8250,8 +8386,21 @@
       <c r="E36" s="45">
         <v>0.18964120370370371</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="60"/>
+      <c r="J36" s="44">
+        <v>43773</v>
+      </c>
+      <c r="K36" s="45">
+        <v>0.9697337962962963</v>
+      </c>
+      <c r="L36" s="44">
+        <v>43774</v>
+      </c>
+      <c r="M36" s="45">
+        <v>0.18964120370370371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="43" t="s">
         <v>38</v>
       </c>
@@ -8267,8 +8416,9 @@
       <c r="E37" s="45">
         <v>0.17921296296296296</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="60"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="43" t="s">
         <v>39</v>
       </c>
@@ -8284,8 +8434,9 @@
       <c r="E38" s="45">
         <v>0.17438657407407407</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="60"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="47" t="s">
         <v>40</v>
       </c>
@@ -8307,8 +8458,9 @@
       <c r="H39" s="49">
         <v>0.64304398148148145</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="60"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="47" t="s">
         <v>41</v>
       </c>
@@ -8324,8 +8476,21 @@
       <c r="E40" s="49">
         <v>0.5411921296296297</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="60"/>
+      <c r="J40" s="48">
+        <v>43778</v>
+      </c>
+      <c r="K40" s="49">
+        <v>0.51586805555555559</v>
+      </c>
+      <c r="L40" s="48">
+        <v>43779</v>
+      </c>
+      <c r="M40" s="49">
+        <v>0.5411921296296297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="47" t="s">
         <v>42</v>
       </c>
@@ -8341,8 +8506,9 @@
       <c r="E41" s="49">
         <v>0.64304398148148145</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="60"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="47" t="s">
         <v>43</v>
       </c>
@@ -8358,8 +8524,9 @@
       <c r="E42" s="49">
         <v>0.54478009259259264</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="60"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="51" t="s">
         <v>44</v>
       </c>
@@ -8381,8 +8548,9 @@
       <c r="H43" s="53">
         <v>0.88597222222222216</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="60"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="51" t="s">
         <v>45</v>
       </c>
@@ -8398,8 +8566,21 @@
       <c r="E44" s="53">
         <v>0.88670138888888894</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="60"/>
+      <c r="J44" s="52">
+        <v>43793</v>
+      </c>
+      <c r="K44" s="53">
+        <v>0.69592592592592595</v>
+      </c>
+      <c r="L44" s="52">
+        <v>43793</v>
+      </c>
+      <c r="M44" s="53">
+        <v>0.88670138888888894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="51" t="s">
         <v>46</v>
       </c>
@@ -8415,8 +8596,9 @@
       <c r="E45" s="53">
         <v>0.88597222222222216</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="60"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="51" t="s">
         <v>47</v>
       </c>
@@ -8432,21 +8614,24 @@
       <c r="E46" s="53">
         <v>0.88961805555555562</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="60"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="60"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="11" t="s">
         <v>237</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
       <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="60"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="12" t="s">
         <v>50</v>
       </c>
@@ -8468,8 +8653,9 @@
       <c r="H49" s="10">
         <v>0.52387731481481481</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="60"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="12" t="s">
         <v>51</v>
       </c>
@@ -8485,8 +8671,9 @@
       <c r="E50" s="15">
         <v>0.52743055555555551</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="60"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="12" t="s">
         <v>52</v>
       </c>
@@ -8502,8 +8689,9 @@
       <c r="E51" s="15">
         <v>0.52387731481481481</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="60"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="16" t="s">
         <v>53</v>
       </c>
@@ -8519,8 +8707,9 @@
       <c r="E52" s="19">
         <v>0.32145833333333335</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="60"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="16" t="s">
         <v>54</v>
       </c>
@@ -8542,8 +8731,9 @@
       <c r="H53" s="10">
         <v>0.31496527777777777</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="60"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="16" t="s">
         <v>55</v>
       </c>
@@ -8559,8 +8749,9 @@
       <c r="E54" s="19">
         <v>0.32215277777777779</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="60"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="20" t="s">
         <v>56</v>
       </c>
@@ -8576,8 +8767,9 @@
       <c r="E55" s="23">
         <v>0.52899305555555554</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="60"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
@@ -8599,8 +8791,9 @@
       <c r="H56" s="23">
         <v>0.52722222222222226</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="60"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="20" t="s">
         <v>58</v>
       </c>
@@ -8616,8 +8809,9 @@
       <c r="E57" s="23">
         <v>0.52722222222222226</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="60"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="24" t="s">
         <v>59</v>
       </c>
@@ -8640,8 +8834,9 @@
       <c r="H58" s="10">
         <v>0.57511574074074068</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="60"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="24" t="s">
         <v>60</v>
       </c>
@@ -8659,8 +8854,9 @@
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="60"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="28" t="s">
         <v>61</v>
       </c>
@@ -8682,8 +8878,9 @@
       <c r="H60" s="31">
         <v>0.31280092592592595</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="60"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="28" t="s">
         <v>62</v>
       </c>
@@ -8699,8 +8896,9 @@
       <c r="E61" s="31">
         <v>0.3200925925925926</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="60"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="28" t="s">
         <v>63</v>
       </c>
@@ -8716,8 +8914,9 @@
       <c r="E62" s="31">
         <v>0.33128472222222222</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="60"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
         <v>64</v>
       </c>
@@ -8739,8 +8938,9 @@
       <c r="H63" s="10">
         <v>0.85371527777777778</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="60"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
         <v>65</v>
       </c>
@@ -8756,8 +8956,9 @@
       <c r="E64" s="38">
         <v>0.91711805555555559</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="60"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="35" t="s">
         <v>66</v>
       </c>
@@ -8773,8 +8974,9 @@
       <c r="E65" s="38">
         <v>0.92063657407407407</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="60"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="39" t="s">
         <v>67</v>
       </c>
@@ -8796,8 +8998,9 @@
       <c r="H66" s="10">
         <v>0.53768518518518515</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="60"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="39" t="s">
         <v>68</v>
       </c>
@@ -8813,8 +9016,9 @@
       <c r="E67" s="42">
         <v>0.53790509259259256</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="60"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="39" t="s">
         <v>69</v>
       </c>
@@ -8830,8 +9034,9 @@
       <c r="E68" s="42">
         <v>0.54628472222222224</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="60"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="43" t="s">
         <v>70</v>
       </c>
@@ -8853,8 +9058,9 @@
       <c r="H69" s="10">
         <v>0.27269675925925924</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="60"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="43" t="s">
         <v>71</v>
       </c>
@@ -8870,8 +9076,9 @@
       <c r="E70" s="46">
         <v>0.27269675925925924</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="60"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="43" t="s">
         <v>72</v>
       </c>
@@ -8887,8 +9094,9 @@
       <c r="E71" s="46">
         <v>0.28738425925925926</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="60"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="47" t="s">
         <v>73</v>
       </c>
@@ -8910,8 +9118,9 @@
       <c r="H72" s="50">
         <v>0.56467592592592586</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="60"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="51" t="s">
         <v>74</v>
       </c>
@@ -8933,8 +9142,9 @@
       <c r="H73" s="10">
         <v>0.1998263888888889</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="60"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="51" t="s">
         <v>75</v>
       </c>
@@ -8950,8 +9160,9 @@
       <c r="E74" s="54">
         <v>0.20425925925925925</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="60"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="51" t="s">
         <v>76</v>
       </c>
@@ -8967,8 +9178,9 @@
       <c r="E75" s="54">
         <v>0.1998263888888889</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="60"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="55" t="s">
         <v>77</v>
       </c>
@@ -8990,21 +9202,24 @@
       <c r="H76" s="57">
         <v>0.18256944444444445</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="60"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" s="9"/>
       <c r="C77" s="6"/>
       <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="60"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="11" t="s">
         <v>238</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="6"/>
       <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="60"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -9026,8 +9241,9 @@
       <c r="H79" s="19">
         <v>0.53584490740740742</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="60"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -9043,8 +9259,9 @@
       <c r="E80" s="19">
         <v>0.54040509259259262</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="60"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -9060,8 +9277,9 @@
       <c r="E81" s="19">
         <v>0.54230324074074077</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="60"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="20" t="s">
         <v>81</v>
       </c>
@@ -9084,8 +9302,9 @@
       <c r="H82" s="23">
         <v>1.324074074074074E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="60"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="20" t="s">
         <v>82</v>
       </c>
@@ -9102,8 +9321,9 @@
         <v>2.0462962962962964E-2</v>
       </c>
       <c r="F83" s="20"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="60"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="20" t="s">
         <v>83</v>
       </c>
@@ -9120,8 +9340,9 @@
         <v>1.324074074074074E-2</v>
       </c>
       <c r="F84" s="20"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="60"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="24" t="s">
         <v>84</v>
       </c>
@@ -9144,8 +9365,9 @@
       <c r="H85" s="27">
         <v>0.8928356481481482</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="60"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="24" t="s">
         <v>85</v>
       </c>
@@ -9162,8 +9384,9 @@
         <v>0.8928356481481482</v>
       </c>
       <c r="F86" s="24"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="60"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="28" t="s">
         <v>86</v>
       </c>
@@ -9185,8 +9408,9 @@
       <c r="H87" s="31">
         <v>0.6285532407407407</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="60"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="28" t="s">
         <v>87</v>
       </c>
@@ -9202,8 +9426,9 @@
       <c r="E88" s="31">
         <v>0.6285532407407407</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="60"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="28" t="s">
         <v>88</v>
       </c>
@@ -9219,8 +9444,9 @@
       <c r="E89" s="31">
         <v>0.63153935185185184</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="60"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="39" t="s">
         <v>89</v>
       </c>
@@ -9242,8 +9468,9 @@
       <c r="H90" s="42">
         <v>0.78440972222222216</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="60"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="39" t="s">
         <v>90</v>
       </c>
@@ -9259,8 +9486,9 @@
       <c r="E91" s="42">
         <v>0.78440972222222216</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="60"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="39" t="s">
         <v>91</v>
       </c>
@@ -9276,8 +9504,9 @@
       <c r="E92" s="42">
         <v>0.79358796296296286</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="60"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="47" t="s">
         <v>92</v>
       </c>
@@ -9299,8 +9528,9 @@
       <c r="H93" s="50">
         <v>0.27186342592592594</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="60"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="47" t="s">
         <v>93</v>
       </c>
@@ -9316,8 +9546,9 @@
       <c r="E94" s="50">
         <v>0.27186342592592594</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="60"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="51" t="s">
         <v>94</v>
       </c>
@@ -9339,8 +9570,9 @@
       <c r="H95" s="54">
         <v>0.45796296296296296</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="60"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="51" t="s">
         <v>95</v>
       </c>
@@ -9356,8 +9588,9 @@
       <c r="E96" s="54">
         <v>0.46615740740740735</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="60"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="51" t="s">
         <v>96</v>
       </c>
@@ -9373,8 +9606,9 @@
       <c r="E97" s="54">
         <v>0.45796296296296296</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="60"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="55" t="s">
         <v>97</v>
       </c>
@@ -9396,8 +9630,9 @@
       <c r="H98" s="57">
         <v>0.77452546296296287</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="60"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="55" t="s">
         <v>98</v>
       </c>
@@ -9413,8 +9648,9 @@
       <c r="E99" s="57">
         <v>0.78263888888888899</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="60"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="55" t="s">
         <v>99</v>
       </c>
@@ -9430,13 +9666,15 @@
       <c r="E100" s="57">
         <v>0.77452546296296287</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="60"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="B101" s="9"/>
       <c r="C101" s="6"/>
       <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="60"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="11" t="s">
         <v>239</v>
       </c>
@@ -9446,8 +9684,9 @@
       <c r="G102" s="13">
         <v>43715</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="60"/>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="12" t="s">
         <v>100</v>
       </c>
@@ -9469,8 +9708,9 @@
       <c r="H103" s="15">
         <v>0.90969907407407413</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="60"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="12" t="s">
         <v>101</v>
       </c>
@@ -9486,8 +9726,21 @@
       <c r="E104" s="15">
         <v>0.90969907407407413</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="60"/>
+      <c r="J104" s="13">
+        <v>43715</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0.52793981481481478</v>
+      </c>
+      <c r="L104" s="13">
+        <v>43715</v>
+      </c>
+      <c r="M104" s="15">
+        <v>0.90969907407407413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="12" t="s">
         <v>102</v>
       </c>
@@ -9503,8 +9756,9 @@
       <c r="E105" s="15">
         <v>0.19670138888888888</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="60"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="12" t="s">
         <v>103</v>
       </c>
@@ -9520,8 +9774,9 @@
       <c r="E106" s="15">
         <v>0.20126157407407408</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="60"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="16" t="s">
         <v>104</v>
       </c>
@@ -9544,8 +9799,9 @@
       <c r="H107" s="19">
         <v>0.50082175925925931</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="60"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="16" t="s">
         <v>105</v>
       </c>
@@ -9562,8 +9818,21 @@
         <v>0.50082175925925931</v>
       </c>
       <c r="F108" s="16"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="60"/>
+      <c r="J108" s="17">
+        <v>43728</v>
+      </c>
+      <c r="K108" s="19">
+        <v>0.32145833333333335</v>
+      </c>
+      <c r="L108" s="17">
+        <v>43728</v>
+      </c>
+      <c r="M108" s="19">
+        <v>0.50082175925925931</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="16" t="s">
         <v>106</v>
       </c>
@@ -9580,8 +9849,9 @@
         <v>0.5027314814814815</v>
       </c>
       <c r="F109" s="16"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="60"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="16" t="s">
         <v>107</v>
       </c>
@@ -9598,8 +9868,9 @@
         <v>0.50539351851851855</v>
       </c>
       <c r="F110" s="16"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="60"/>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="20" t="s">
         <v>108</v>
       </c>
@@ -9621,8 +9892,9 @@
       <c r="H111" s="23">
         <v>0.91957175925925927</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="60"/>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="20" t="s">
         <v>109</v>
       </c>
@@ -9638,8 +9910,21 @@
       <c r="E112" s="23">
         <v>0.92456018518518512</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="60"/>
+      <c r="J112" s="21">
+        <v>43730</v>
+      </c>
+      <c r="K112" s="23">
+        <v>0.52899305555555554</v>
+      </c>
+      <c r="L112" s="21">
+        <v>43730</v>
+      </c>
+      <c r="M112" s="23">
+        <v>0.92456018518518512</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="20" t="s">
         <v>110</v>
       </c>
@@ -9655,8 +9940,9 @@
       <c r="E113" s="23">
         <v>0.92606481481481484</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="60"/>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="20" t="s">
         <v>111</v>
       </c>
@@ -9672,8 +9958,9 @@
       <c r="E114" s="23">
         <v>0.91957175925925927</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="60"/>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="24" t="s">
         <v>112</v>
       </c>
@@ -9695,8 +9982,9 @@
       <c r="H115" s="27">
         <v>0.76094907407407408</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="60"/>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="24" t="s">
         <v>113</v>
       </c>
@@ -9712,8 +10000,21 @@
       <c r="E116" s="27">
         <v>0.77123842592592595</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="60"/>
+      <c r="J116" s="25">
+        <v>43733</v>
+      </c>
+      <c r="K116" s="27">
+        <v>0.57636574074074076</v>
+      </c>
+      <c r="L116" s="25">
+        <v>43733</v>
+      </c>
+      <c r="M116" s="27">
+        <v>0.77123842592592595</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="24" t="s">
         <v>114</v>
       </c>
@@ -9729,8 +10030,9 @@
       <c r="E117" s="27">
         <v>0.76094907407407408</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="60"/>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="28" t="s">
         <v>115</v>
       </c>
@@ -9752,8 +10054,9 @@
       <c r="H118" s="31">
         <v>0.59082175925925928</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="60"/>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="28" t="s">
         <v>116</v>
       </c>
@@ -9769,8 +10072,21 @@
       <c r="E119" s="31">
         <v>0.59833333333333327</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="60"/>
+      <c r="J119" s="29">
+        <v>43753</v>
+      </c>
+      <c r="K119" s="31">
+        <v>0.31280092592592595</v>
+      </c>
+      <c r="L119" s="29">
+        <v>43753</v>
+      </c>
+      <c r="M119" s="31">
+        <v>0.59833333333333327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="28" t="s">
         <v>117</v>
       </c>
@@ -9786,8 +10102,9 @@
       <c r="E120" s="31">
         <v>0.59082175925925928</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="60"/>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="28" t="s">
         <v>118</v>
       </c>
@@ -9803,8 +10120,9 @@
       <c r="E121" s="31">
         <v>0.59570601851851845</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="60"/>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="39" t="s">
         <v>119</v>
       </c>
@@ -9826,8 +10144,9 @@
       <c r="H122" s="42">
         <v>0.64107638888888896</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="60"/>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="39" t="s">
         <v>120</v>
       </c>
@@ -9843,8 +10162,21 @@
       <c r="E123" s="42">
         <v>0.64634259259259264</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="60"/>
+      <c r="J123" s="40">
+        <v>43769</v>
+      </c>
+      <c r="K123" s="42">
+        <v>0.53768518518518515</v>
+      </c>
+      <c r="L123" s="40">
+        <v>43769</v>
+      </c>
+      <c r="M123" s="42">
+        <v>0.64634259259259264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="39" t="s">
         <v>121</v>
       </c>
@@ -9860,8 +10192,9 @@
       <c r="E124" s="42">
         <v>0.65121527777777777</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="60"/>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="39" t="s">
         <v>122</v>
       </c>
@@ -9880,8 +10213,9 @@
       <c r="G125" s="44">
         <v>43774</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="60"/>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="43" t="s">
         <v>123</v>
       </c>
@@ -9903,8 +10237,9 @@
       <c r="H126" s="46">
         <v>0.97711805555555553</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="60"/>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="43" t="s">
         <v>124</v>
       </c>
@@ -9920,8 +10255,21 @@
       <c r="E127" s="46">
         <v>6.508101851851851E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="60"/>
+      <c r="J127" s="44">
+        <v>43774</v>
+      </c>
+      <c r="K127" s="46">
+        <v>0.28836805555555556</v>
+      </c>
+      <c r="L127" s="44">
+        <v>43776</v>
+      </c>
+      <c r="M127" s="46">
+        <v>6.508101851851851E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="43" t="s">
         <v>125</v>
       </c>
@@ -9937,8 +10285,9 @@
       <c r="E128" s="46">
         <v>4.5717592592592594E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="60"/>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="43" t="s">
         <v>126</v>
       </c>
@@ -9954,8 +10303,9 @@
       <c r="E129" s="46">
         <v>0.97711805555555553</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="60"/>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="47" t="s">
         <v>127</v>
       </c>
@@ -9974,8 +10324,9 @@
       <c r="G130" s="48">
         <v>43784</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="60"/>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="47" t="s">
         <v>128</v>
       </c>
@@ -9997,8 +10348,21 @@
       <c r="H131" s="50">
         <v>0.93582175925925926</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="60"/>
+      <c r="J131" s="48">
+        <v>43779</v>
+      </c>
+      <c r="K131" s="50">
+        <v>0.56467592592592586</v>
+      </c>
+      <c r="L131" s="48">
+        <v>43785</v>
+      </c>
+      <c r="M131" s="50">
+        <v>0.22915509259259259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="47" t="s">
         <v>129</v>
       </c>
@@ -10014,8 +10378,9 @@
       <c r="E132" s="50">
         <v>0.23379629629629628</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="60"/>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="47" t="s">
         <v>130</v>
       </c>
@@ -10031,8 +10396,9 @@
       <c r="E133" s="50">
         <v>0.93582175925925926</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="60"/>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="51" t="s">
         <v>131</v>
       </c>
@@ -10054,8 +10420,9 @@
       <c r="H134" s="54">
         <v>0.35078703703703701</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="60"/>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="51" t="s">
         <v>132</v>
       </c>
@@ -10071,8 +10438,21 @@
       <c r="E135" s="54">
         <v>0.3520949074074074</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="60"/>
+      <c r="J135" s="52">
+        <v>43794</v>
+      </c>
+      <c r="K135" s="54">
+        <v>0.20784722222222221</v>
+      </c>
+      <c r="L135" s="52">
+        <v>43794</v>
+      </c>
+      <c r="M135" s="54">
+        <v>0.3520949074074074</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="51" t="s">
         <v>133</v>
       </c>
@@ -10088,8 +10468,9 @@
       <c r="E136" s="54">
         <v>0.35665509259259259</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="60"/>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="51" t="s">
         <v>134</v>
       </c>
@@ -10105,8 +10486,9 @@
       <c r="E137" s="54">
         <v>0.35078703703703701</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="60"/>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="55" t="s">
         <v>135</v>
       </c>
@@ -10128,8 +10510,9 @@
       <c r="H138" s="56">
         <v>43821</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="60"/>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="55" t="s">
         <v>136</v>
       </c>
@@ -10151,8 +10534,21 @@
       <c r="H139" s="57">
         <v>0.25662037037037039</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="60"/>
+      <c r="J139" s="56">
+        <v>43816</v>
+      </c>
+      <c r="K139" s="57">
+        <v>0.18256944444444445</v>
+      </c>
+      <c r="L139" s="56">
+        <v>43821</v>
+      </c>
+      <c r="M139" s="57">
+        <v>0.25662037037037039</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="55" t="s">
         <v>137</v>
       </c>
@@ -10168,8 +10564,9 @@
       <c r="E140" s="57">
         <v>0.2610763888888889</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="60"/>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="55" t="s">
         <v>138</v>
       </c>
@@ -10185,21 +10582,24 @@
       <c r="E141" s="57">
         <v>0.26276620370370368</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="60"/>
+    </row>
+    <row r="142" spans="1:13">
       <c r="B142" s="9"/>
       <c r="C142" s="6"/>
       <c r="E142" s="6"/>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="60"/>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="11" t="s">
         <v>240</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="6"/>
       <c r="E143" s="6"/>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="60"/>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="16" t="s">
         <v>139</v>
       </c>
@@ -10221,8 +10621,9 @@
       <c r="H144" s="19">
         <v>0.67449074074074078</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="60"/>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="16" t="s">
         <v>140</v>
       </c>
@@ -10238,8 +10639,21 @@
       <c r="E145" s="19">
         <v>0.67693287037037031</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="60"/>
+      <c r="J145" s="17">
+        <v>43728</v>
+      </c>
+      <c r="K145" s="19">
+        <v>0.53584490740740742</v>
+      </c>
+      <c r="L145" s="17">
+        <v>43728</v>
+      </c>
+      <c r="M145" s="19">
+        <v>0.67693287037037031</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="16" t="s">
         <v>141</v>
       </c>
@@ -10255,8 +10669,9 @@
       <c r="E146" s="19">
         <v>0.69208333333333327</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="60"/>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="16" t="s">
         <v>142</v>
       </c>
@@ -10272,8 +10687,9 @@
       <c r="E147" s="19">
         <v>0.67449074074074078</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="60"/>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="20" t="s">
         <v>143</v>
       </c>
@@ -10295,8 +10711,9 @@
       <c r="H148" s="23">
         <v>2.9791666666666664E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="60"/>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="20" t="s">
         <v>144</v>
       </c>
@@ -10312,8 +10729,21 @@
       <c r="E149" s="23">
         <v>2.9791666666666664E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" s="60"/>
+      <c r="J149" s="21">
+        <v>43731</v>
+      </c>
+      <c r="K149" s="23">
+        <v>2.1354166666666664E-2</v>
+      </c>
+      <c r="L149" s="21">
+        <v>43731</v>
+      </c>
+      <c r="M149" s="23">
+        <v>2.9791666666666664E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="20" t="s">
         <v>145</v>
       </c>
@@ -10331,8 +10761,9 @@
       </c>
       <c r="G150" s="23"/>
       <c r="H150" s="23"/>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" s="60"/>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="20" t="s">
         <v>146</v>
       </c>
@@ -10348,8 +10779,9 @@
       <c r="E151" s="23">
         <v>0.47386574074074073</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="60"/>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="24" t="s">
         <v>147</v>
       </c>
@@ -10371,8 +10803,9 @@
       <c r="H152" s="25">
         <v>43734</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" s="60"/>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="24" t="s">
         <v>148</v>
       </c>
@@ -10394,8 +10827,21 @@
       <c r="H153" s="27">
         <v>2.5949074074074072E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" s="60"/>
+      <c r="J153" s="25">
+        <v>43733</v>
+      </c>
+      <c r="K153" s="27">
+        <v>0.8951041666666667</v>
+      </c>
+      <c r="L153" s="25">
+        <v>43734</v>
+      </c>
+      <c r="M153" s="27">
+        <v>4.5069444444444447E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="24" t="s">
         <v>149</v>
       </c>
@@ -10411,8 +10857,9 @@
       <c r="E154" s="27">
         <v>2.5949074074074072E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" s="60"/>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="28" t="s">
         <v>150</v>
       </c>
@@ -10435,6 +10882,31 @@
       <c r="H155" s="31">
         <v>0.93054398148148154</v>
       </c>
+      <c r="I155" s="60"/>
+      <c r="J155" s="29">
+        <v>43753</v>
+      </c>
+      <c r="K155" s="31">
+        <v>0.63407407407407412</v>
+      </c>
+      <c r="L155" s="29">
+        <v>43753</v>
+      </c>
+      <c r="M155" s="31">
+        <v>0.93054398148148154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="I156" s="60"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="I157" s="60"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="I158" s="60"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="I159" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
